--- a/data/source/industries/ordnance.xlsx
+++ b/data/source/industries/ordnance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\output\01_ordnance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\source\industries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F841AE-F633-4655-87D9-AFB55588FD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B825CD4-9FC6-4FBA-B75D-58E03A8B0D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30000" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve"> Year</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>2 .6</t>
-  </si>
-  <si>
-    <t>2 .8</t>
   </si>
 </sst>
 </file>
@@ -396,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +520,9 @@
       <c r="L3">
         <v>1.2</v>
       </c>
+      <c r="M3">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -540,9 +540,15 @@
       <c r="E4">
         <v>108.39</v>
       </c>
+      <c r="F4">
+        <v>2.65</v>
+      </c>
       <c r="G4">
         <v>40.9</v>
       </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
@@ -552,8 +558,11 @@
       <c r="K4">
         <v>2.4</v>
       </c>
+      <c r="L4">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="M4">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -569,14 +578,32 @@
       <c r="D5">
         <v>110.6</v>
       </c>
+      <c r="E5">
+        <v>113.03</v>
+      </c>
       <c r="F5">
-        <v>2.65</v>
+        <v>2.75</v>
+      </c>
+      <c r="G5">
+        <v>41.1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1.9</v>
+      </c>
+      <c r="I5">
+        <v>2.9</v>
+      </c>
+      <c r="J5">
+        <v>2.1</v>
+      </c>
+      <c r="K5">
+        <v>2.2999999999999998</v>
       </c>
       <c r="L5">
         <v>1.1000000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -593,19 +620,28 @@
         <v>119.3</v>
       </c>
       <c r="E6">
-        <v>113.03</v>
+        <v>116.6</v>
+      </c>
+      <c r="F6">
+        <v>2.83</v>
       </c>
       <c r="G6">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="H6">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I6">
         <v>2.9</v>
       </c>
-      <c r="J6">
-        <v>2.1</v>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>2.7</v>
+      </c>
+      <c r="L6">
+        <v>1.2</v>
       </c>
       <c r="M6">
         <v>0.9</v>
@@ -625,19 +661,31 @@
         <v>115.2</v>
       </c>
       <c r="E7">
-        <v>116.6</v>
+        <v>120.42</v>
+      </c>
+      <c r="F7">
+        <v>2.93</v>
       </c>
       <c r="G7">
-        <v>41.2</v>
+        <v>41.1</v>
+      </c>
+      <c r="H7">
+        <v>2.4</v>
       </c>
       <c r="I7">
-        <v>2.9</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
+        <v>2.5</v>
+      </c>
+      <c r="J7">
+        <v>1.6</v>
       </c>
       <c r="K7">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -654,28 +702,31 @@
         <v>104.1</v>
       </c>
       <c r="E8">
-        <v>120.42</v>
+        <v>122.72</v>
       </c>
       <c r="F8">
-        <v>2.75</v>
+        <v>3.03</v>
       </c>
       <c r="G8">
-        <v>41.1</v>
+        <v>40.5</v>
       </c>
       <c r="H8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I8">
-        <v>2.5</v>
+        <v>1.8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
       </c>
       <c r="J8">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K8">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L8">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
+      </c>
+      <c r="M8">
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -692,28 +743,31 @@
         <v>96.1</v>
       </c>
       <c r="E9">
-        <v>122.72</v>
+        <v>131.15</v>
+      </c>
+      <c r="F9">
+        <v>3.13</v>
       </c>
       <c r="G9">
-        <v>40.5</v>
+        <v>41.9</v>
       </c>
       <c r="H9">
-        <v>2.4</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>2.9</v>
       </c>
       <c r="J9">
+        <v>1.8</v>
+      </c>
+      <c r="K9">
+        <v>2.5</v>
+      </c>
+      <c r="L9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K9">
-        <v>2.7</v>
-      </c>
-      <c r="L9">
-        <v>1.2</v>
-      </c>
       <c r="M9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -730,22 +784,31 @@
         <v>127.3</v>
       </c>
       <c r="E10">
-        <v>131.15</v>
+        <v>133.77000000000001</v>
       </c>
       <c r="F10">
-        <v>2.83</v>
+        <v>3.17</v>
       </c>
       <c r="G10">
-        <v>41.9</v>
+        <v>42.2</v>
+      </c>
+      <c r="H10">
+        <v>3.9</v>
       </c>
       <c r="I10">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="K10">
-        <v>3.4</v>
+        <v>2.7</v>
+      </c>
+      <c r="L10">
+        <v>1.5</v>
+      </c>
+      <c r="M10">
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -762,28 +825,31 @@
         <v>174.1</v>
       </c>
       <c r="E11">
-        <v>133.77000000000001</v>
+        <v>132.61000000000001</v>
+      </c>
+      <c r="F11">
+        <v>3.18</v>
       </c>
       <c r="G11">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
       <c r="H11">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J11">
         <v>3.3</v>
       </c>
       <c r="K11">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="M11">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -800,25 +866,31 @@
         <v>191.7</v>
       </c>
       <c r="E12">
-        <v>132.61000000000001</v>
+        <v>135.29</v>
       </c>
       <c r="F12">
-        <v>2.93</v>
+        <v>3.26</v>
       </c>
       <c r="G12">
-        <v>41.7</v>
+        <v>41.5</v>
+      </c>
+      <c r="H12">
+        <v>3.5</v>
       </c>
       <c r="I12">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J12">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="K12">
-        <v>2.7</v>
+        <v>3.4</v>
+      </c>
+      <c r="L12">
+        <v>1.9</v>
       </c>
       <c r="M12">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -835,28 +907,31 @@
         <v>181.8</v>
       </c>
       <c r="E13">
-        <v>135.29</v>
+        <v>138.16999999999999</v>
       </c>
       <c r="F13">
-        <v>3.03</v>
+        <v>3.42</v>
       </c>
       <c r="G13">
-        <v>41.5</v>
+        <v>40.4</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I13">
-        <v>3.4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
+        <v>2.4</v>
+      </c>
+      <c r="J13">
+        <v>1.8</v>
       </c>
       <c r="K13">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="L13">
-        <v>0.9</v>
+        <v>1.8</v>
+      </c>
+      <c r="M13">
+        <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -873,22 +948,31 @@
         <v>131.5</v>
       </c>
       <c r="E14">
-        <v>138.16999999999999</v>
+        <v>146.21</v>
+      </c>
+      <c r="F14">
+        <v>3.61</v>
       </c>
       <c r="G14">
-        <v>40.4</v>
+        <v>40.5</v>
+      </c>
+      <c r="H14">
+        <v>2.2000000000000002</v>
       </c>
       <c r="I14">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="J14">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="K14">
-        <v>3.4</v>
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M14">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -905,31 +989,31 @@
         <v>95.8</v>
       </c>
       <c r="E15">
-        <v>146.21</v>
+        <v>158.5</v>
       </c>
       <c r="F15">
-        <v>3.13</v>
+        <v>3.81</v>
       </c>
       <c r="G15">
-        <v>40.5</v>
+        <v>41.6</v>
       </c>
       <c r="H15">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="I15">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J15">
         <v>0.9</v>
       </c>
       <c r="K15">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="M15">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -946,16 +1030,31 @@
         <v>91.3</v>
       </c>
       <c r="E16">
-        <v>158.5</v>
+        <v>171.36</v>
       </c>
       <c r="F16">
-        <v>3.17</v>
+        <v>4.08</v>
+      </c>
+      <c r="G16">
+        <v>42</v>
+      </c>
+      <c r="H16">
+        <v>3.1</v>
+      </c>
+      <c r="I16">
+        <v>2.6</v>
+      </c>
+      <c r="J16">
+        <v>1.6</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L16">
+        <v>0.9</v>
       </c>
       <c r="M16">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -972,25 +1071,31 @@
         <v>92.1</v>
       </c>
       <c r="E17">
-        <v>171.36</v>
+        <v>181.83</v>
       </c>
       <c r="F17">
-        <v>3.18</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G17">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="H17">
-        <v>3.8</v>
+        <v>3.3</v>
+      </c>
+      <c r="I17">
+        <v>2.2000000000000002</v>
       </c>
       <c r="J17">
-        <v>0.9</v>
+        <v>1.4</v>
+      </c>
+      <c r="K17">
+        <v>2.7</v>
       </c>
       <c r="L17">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M17">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1006,166 +1111,32 @@
       <c r="D18">
         <v>84.9</v>
       </c>
+      <c r="E18">
+        <v>196.41</v>
+      </c>
       <c r="F18">
-        <v>3.26</v>
+        <v>4.71</v>
       </c>
       <c r="G18">
-        <v>42</v>
+        <v>41.7</v>
+      </c>
+      <c r="H18">
+        <v>3.2</v>
       </c>
       <c r="I18">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J18">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2.5</v>
+      </c>
+      <c r="L18">
+        <v>0.9</v>
       </c>
       <c r="M18">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <v>181.83</v>
-      </c>
-      <c r="F19">
-        <v>3.42</v>
-      </c>
-      <c r="G19">
-        <v>41.8</v>
-      </c>
-      <c r="H19">
-        <v>3.5</v>
-      </c>
-      <c r="J19">
-        <v>1.4</v>
-      </c>
-      <c r="K19">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L19">
-        <v>1.7</v>
-      </c>
-      <c r="M19">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F20">
-        <v>3.61</v>
-      </c>
-      <c r="G20">
-        <v>41.7</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20">
-        <v>1.4</v>
-      </c>
-      <c r="M20">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <v>196.41</v>
-      </c>
-      <c r="H21">
-        <v>2.5</v>
-      </c>
-      <c r="K21">
-        <v>2.7</v>
-      </c>
-      <c r="L21">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F22">
-        <v>3.81</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <v>4.08</v>
-      </c>
-      <c r="H23">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23">
-        <v>2.5</v>
-      </c>
-      <c r="L23">
-        <v>1.8</v>
-      </c>
-      <c r="M23">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F24">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="M24">
         <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F25">
-        <v>4.71</v>
-      </c>
-      <c r="L25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H26">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L27">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H28">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H29">
-        <v>3.3</v>
-      </c>
-      <c r="L29">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H31">
-        <v>3.2</v>
-      </c>
-      <c r="L31">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L33">
-        <v>0.9</v>
       </c>
     </row>
   </sheetData>
